--- a/output/meral/2018/sheets/year_2018.xlsx
+++ b/output/meral/2018/sheets/year_2018.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>36.51290322580645</v>
+        <v>47.61015714016544</v>
       </c>
       <c r="C2" t="n">
-        <v>21.98387096774194</v>
+        <v>44.57246670390131</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>43.91428571428571</v>
+        <v>47.64259973760911</v>
       </c>
       <c r="C3" t="n">
-        <v>27.63571428571428</v>
+        <v>38.72192438293692</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>43.30967741935483</v>
+        <v>48.69089372629682</v>
       </c>
       <c r="C4" t="n">
-        <v>27.91612903225806</v>
+        <v>45.37402457628551</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>48.73333333333334</v>
+        <v>59.88338485058576</v>
       </c>
       <c r="C5" t="n">
-        <v>41.30666666666666</v>
+        <v>52.97843646991915</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38.7</v>
+        <v>46.1739658617546</v>
       </c>
       <c r="C6" t="n">
-        <v>27.65483870967742</v>
+        <v>38.89122694969038</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>45.05333333333333</v>
+        <v>48.9542008654939</v>
       </c>
       <c r="C7" t="n">
-        <v>37.67333333333333</v>
+        <v>42.75670716916017</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>49.22258064516129</v>
+        <v>50.58320125052164</v>
       </c>
       <c r="C8" t="n">
-        <v>29.58064516129033</v>
+        <v>42.52977506111026</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.95806451612903</v>
+        <v>50.08806154516201</v>
       </c>
       <c r="C9" t="n">
-        <v>20.91935483870968</v>
+        <v>42.45211093447973</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.54666666666666</v>
+        <v>51.82912789767482</v>
       </c>
       <c r="C10" t="n">
-        <v>34.45333333333333</v>
+        <v>43.97405302839783</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.65483870967742</v>
+        <v>51.01487155381631</v>
       </c>
       <c r="C11" t="n">
-        <v>36.50322580645161</v>
+        <v>44.77281932001712</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.71333333333333</v>
+        <v>52.80321386564275</v>
       </c>
       <c r="C12" t="n">
-        <v>32.87666666666667</v>
+        <v>49.6186537657647</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>42.3516129032258</v>
+        <v>47.73931353103094</v>
       </c>
       <c r="C13" t="n">
-        <v>36.48709677419355</v>
+        <v>40.79427629569049</v>
       </c>
     </row>
   </sheetData>
